--- a/medicine/Hématologie/Phosphate_de_sodium/Phosphate_de_sodium.xlsx
+++ b/medicine/Hématologie/Phosphate_de_sodium/Phosphate_de_sodium.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le phosphate de sodium ou phosphate trisodique est un composé chimique de formule Na3PO4. C'est l'additif alimentaire E339(iii).
@@ -514,9 +526,11 @@
           <t>Additif alimentaire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les phosphates de sodium, y compris le phosphate monosodique, le phosphate disodique et le phosphate trisodique, sont approuvés en tant qu'additifs alimentaires dans l'Union européenne, sous les numéros respectifs E339(i), E339(ii) et E339(iii). Ils sont couramment utilisés comme régulateurs d'acidité, avec le numéro E collectif E339[3]. Selon la Food and Drug Administration des États-Unis, les phosphates de sodium sont généralement considérés comme sûrs[4],[5].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les phosphates de sodium, y compris le phosphate monosodique, le phosphate disodique et le phosphate trisodique, sont approuvés en tant qu'additifs alimentaires dans l'Union européenne, sous les numéros respectifs E339(i), E339(ii) et E339(iii). Ils sont couramment utilisés comme régulateurs d'acidité, avec le numéro E collectif E339. Selon la Food and Drug Administration des États-Unis, les phosphates de sodium sont généralement considérés comme sûrs,.
 </t>
         </is>
       </c>
